--- a/Honey & Mumford Template.xlsx
+++ b/Honey & Mumford Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisydneyedu-my.sharepoint.com/personal/rgup6136_uni_sydney_edu_au/Documents/2018 - S2/ENGG4111/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OpenSource\PersonalityQuestionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F7307E2-F487-4975-A70A-3F79CCD60D77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53C50B5D-64BC-45ED-A368-6FE528D9CF9F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{F81B07BC-F333-4C43-A608-74C7104E2B79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" activeTab="1" xr2:uid="{F81B07BC-F333-4C43-A608-74C7104E2B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="2" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>Theorist</t>
   </si>
   <si>
-    <t>Pargmatist</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>People often find me insensitive to their feelings</t>
+  </si>
+  <si>
+    <t>Pragmatist</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BF6E2F-A576-4BF8-93D8-FC03F976B271}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -681,10 +681,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1B4296-D68F-40AA-A935-AFB247084132}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,12 +1363,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <f>SUM(B3:B22)</f>

--- a/Honey & Mumford Template.xlsx
+++ b/Honey & Mumford Template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OpenSource\PersonalityQuestionnaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\PersonalityQuestionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53C50B5D-64BC-45ED-A368-6FE528D9CF9F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3CA3D57-239D-4D85-8D2E-474CD14AA376}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" activeTab="1" xr2:uid="{F81B07BC-F333-4C43-A608-74C7104E2B79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{F81B07BC-F333-4C43-A608-74C7104E2B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="2" r:id="rId1"/>
     <sheet name="Outcome" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -357,7 +357,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -368,6 +412,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{352F1A96-64AE-47A2-BC10-DA115014BFE2}" name="Table1" displayName="Table1" ref="A1:B81" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:B81" xr:uid="{82266221-8D7A-404B-BB69-4A8363A9287B}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D1FAC0EC-23E4-4EB0-B425-5A9A899781CF}" name="Answer" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7048DE7F-D6A0-48E9-9BBD-323C755930BD}" name="Question"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,17 +724,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BF6E2F-A576-4BF8-93D8-FC03F976B271}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2" style="3" customWidth="1"/>
+    <col min="2" max="2" width="113.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -687,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -695,7 +750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -703,7 +758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -711,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -719,7 +774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -727,7 +782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -735,7 +790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -743,7 +798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -751,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -759,7 +814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -767,7 +822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -775,7 +830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -783,7 +838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0</v>
       </c>
@@ -791,7 +846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0</v>
       </c>
@@ -799,7 +854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0</v>
       </c>
@@ -807,7 +862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -815,7 +870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0</v>
       </c>
@@ -823,7 +878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -831,7 +886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0</v>
       </c>
@@ -839,7 +894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>0</v>
       </c>
@@ -847,7 +902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>0</v>
       </c>
@@ -855,7 +910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>0</v>
       </c>
@@ -863,7 +918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -871,7 +926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>0</v>
       </c>
@@ -879,7 +934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>0</v>
       </c>
@@ -887,7 +942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>0</v>
       </c>
@@ -895,7 +950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>0</v>
       </c>
@@ -903,7 +958,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>0</v>
       </c>
@@ -911,7 +966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>0</v>
       </c>
@@ -919,7 +974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -927,7 +982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>0</v>
       </c>
@@ -935,7 +990,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -943,7 +998,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>0</v>
       </c>
@@ -951,7 +1006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>0</v>
       </c>
@@ -959,7 +1014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>0</v>
       </c>
@@ -967,7 +1022,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>0</v>
       </c>
@@ -975,7 +1030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -983,7 +1038,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>0</v>
       </c>
@@ -991,7 +1046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>0</v>
       </c>
@@ -999,7 +1054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>0</v>
       </c>
@@ -1007,7 +1062,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>0</v>
       </c>
@@ -1015,7 +1070,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>0</v>
       </c>
@@ -1023,7 +1078,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>0</v>
       </c>
@@ -1031,7 +1086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -1039,7 +1094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>0</v>
       </c>
@@ -1047,7 +1102,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>0</v>
       </c>
@@ -1055,7 +1110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>0</v>
       </c>
@@ -1063,7 +1118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>0</v>
       </c>
@@ -1071,7 +1126,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>0</v>
       </c>
@@ -1079,7 +1134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>0</v>
       </c>
@@ -1087,7 +1142,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>0</v>
       </c>
@@ -1095,7 +1150,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>0</v>
       </c>
@@ -1103,7 +1158,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>0</v>
       </c>
@@ -1111,7 +1166,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>0</v>
       </c>
@@ -1119,7 +1174,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>0</v>
       </c>
@@ -1127,7 +1182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>0</v>
       </c>
@@ -1135,7 +1190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>0</v>
       </c>
@@ -1143,7 +1198,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>0</v>
       </c>
@@ -1151,7 +1206,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>0</v>
       </c>
@@ -1159,7 +1214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>0</v>
       </c>
@@ -1167,7 +1222,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>0</v>
       </c>
@@ -1175,7 +1230,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>0</v>
       </c>
@@ -1183,7 +1238,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>0</v>
       </c>
@@ -1191,7 +1246,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>0</v>
       </c>
@@ -1199,7 +1254,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>0</v>
       </c>
@@ -1207,7 +1262,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>0</v>
       </c>
@@ -1215,7 +1270,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>0</v>
       </c>
@@ -1223,7 +1278,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>0</v>
       </c>
@@ -1231,7 +1286,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>0</v>
       </c>
@@ -1239,7 +1294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>0</v>
       </c>
@@ -1247,7 +1302,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>0</v>
       </c>
@@ -1255,7 +1310,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>0</v>
       </c>
@@ -1263,7 +1318,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>0</v>
       </c>
@@ -1271,7 +1326,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>0</v>
       </c>
@@ -1279,7 +1334,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>0</v>
       </c>
@@ -1287,7 +1342,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>0</v>
       </c>
@@ -1295,7 +1350,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>0</v>
       </c>
@@ -1303,7 +1358,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>0</v>
       </c>
@@ -1311,7 +1366,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>0</v>
       </c>
@@ -1319,7 +1374,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>0</v>
       </c>
@@ -1329,6 +1384,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1336,20 +1394,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1B4296-D68F-40AA-A935-AFB247084132}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +1424,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1387,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <f>Questions!A3</f>
         <v>0</v>
@@ -1405,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>Questions!A5</f>
         <v>0</v>
@@ -1423,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>Questions!A7</f>
         <v>0</v>
@@ -1441,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>Questions!A11</f>
         <v>0</v>
@@ -1459,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>Questions!A18</f>
         <v>0</v>
@@ -1477,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>Questions!A24</f>
         <v>0</v>
@@ -1495,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>Questions!A25</f>
         <v>0</v>
@@ -1513,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>Questions!A33</f>
         <v>0</v>
@@ -1531,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>Questions!A35</f>
         <v>0</v>
@@ -1549,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>Questions!A39</f>
         <v>0</v>
@@ -1567,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>Questions!A41</f>
         <v>0</v>
@@ -1585,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>Questions!A44</f>
         <v>0</v>
@@ -1603,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>Questions!A46</f>
         <v>0</v>
@@ -1621,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>Questions!A49</f>
         <v>0</v>
@@ -1639,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>Questions!A60</f>
         <v>0</v>
@@ -1657,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>Questions!A67</f>
         <v>0</v>
@@ -1675,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>Questions!A74</f>
         <v>0</v>
@@ -1693,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>Questions!A75</f>
         <v>0</v>
@@ -1711,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>Questions!A77</f>
         <v>0</v>
@@ -1729,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>Questions!A82</f>
         <v>0</v>

--- a/Honey & Mumford Template.xlsx
+++ b/Honey & Mumford Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\PersonalityQuestionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3CA3D57-239D-4D85-8D2E-474CD14AA376}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D5B9C0-1E6D-4BB4-9E29-1266ABE04932}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{F81B07BC-F333-4C43-A608-74C7104E2B79}"/>
   </bookViews>
@@ -296,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,8 +317,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,8 +339,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -340,24 +360,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -383,24 +475,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -415,10 +489,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{352F1A96-64AE-47A2-BC10-DA115014BFE2}" name="Table1" displayName="Table1" ref="A1:B81" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{352F1A96-64AE-47A2-BC10-DA115014BFE2}" name="Table1" displayName="Table1" ref="A1:B81" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:B81" xr:uid="{82266221-8D7A-404B-BB69-4A8363A9287B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D1FAC0EC-23E4-4EB0-B425-5A9A899781CF}" name="Answer" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D1FAC0EC-23E4-4EB0-B425-5A9A899781CF}" name="Answer" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7048DE7F-D6A0-48E9-9BBD-323C755930BD}" name="Question"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -725,12 +799,12 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B81"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="113.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -743,7 +817,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -751,7 +825,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -759,7 +833,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -767,7 +841,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="B5" t="s">
@@ -775,7 +849,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>0</v>
       </c>
       <c r="B6" t="s">
@@ -783,7 +857,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>0</v>
       </c>
       <c r="B7" t="s">
@@ -791,7 +865,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>0</v>
       </c>
       <c r="B8" t="s">
@@ -799,7 +873,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>0</v>
       </c>
       <c r="B9" t="s">
@@ -807,7 +881,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>0</v>
       </c>
       <c r="B10" t="s">
@@ -815,7 +889,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>0</v>
       </c>
       <c r="B11" t="s">
@@ -823,7 +897,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>0</v>
       </c>
       <c r="B12" t="s">
@@ -831,7 +905,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>0</v>
       </c>
       <c r="B13" t="s">
@@ -839,7 +913,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>0</v>
       </c>
       <c r="B14" t="s">
@@ -847,7 +921,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>0</v>
       </c>
       <c r="B15" t="s">
@@ -855,7 +929,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>0</v>
       </c>
       <c r="B16" t="s">
@@ -863,7 +937,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>0</v>
       </c>
       <c r="B17" t="s">
@@ -871,7 +945,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>0</v>
       </c>
       <c r="B18" t="s">
@@ -879,7 +953,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>0</v>
       </c>
       <c r="B19" t="s">
@@ -887,7 +961,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>0</v>
       </c>
       <c r="B20" t="s">
@@ -895,7 +969,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>0</v>
       </c>
       <c r="B21" t="s">
@@ -903,7 +977,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>0</v>
       </c>
       <c r="B22" t="s">
@@ -911,7 +985,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>0</v>
       </c>
       <c r="B23" t="s">
@@ -919,7 +993,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>0</v>
       </c>
       <c r="B24" t="s">
@@ -927,7 +1001,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>0</v>
       </c>
       <c r="B25" t="s">
@@ -935,7 +1009,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>0</v>
       </c>
       <c r="B26" t="s">
@@ -943,7 +1017,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>0</v>
       </c>
       <c r="B27" t="s">
@@ -951,7 +1025,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -959,7 +1033,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>0</v>
       </c>
       <c r="B29" t="s">
@@ -967,7 +1041,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>0</v>
       </c>
       <c r="B30" t="s">
@@ -975,7 +1049,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>0</v>
       </c>
       <c r="B31" t="s">
@@ -983,7 +1057,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>0</v>
       </c>
       <c r="B32" t="s">
@@ -991,7 +1065,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>0</v>
       </c>
       <c r="B33" t="s">
@@ -999,7 +1073,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>0</v>
       </c>
       <c r="B34" t="s">
@@ -1007,7 +1081,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>0</v>
       </c>
       <c r="B35" t="s">
@@ -1015,7 +1089,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>0</v>
       </c>
       <c r="B36" t="s">
@@ -1023,7 +1097,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -1031,7 +1105,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>0</v>
       </c>
       <c r="B38" t="s">
@@ -1039,7 +1113,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>0</v>
       </c>
       <c r="B39" t="s">
@@ -1047,7 +1121,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>0</v>
       </c>
       <c r="B40" t="s">
@@ -1055,7 +1129,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>0</v>
       </c>
       <c r="B41" t="s">
@@ -1063,7 +1137,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -1071,7 +1145,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>0</v>
       </c>
       <c r="B43" t="s">
@@ -1079,7 +1153,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>0</v>
       </c>
       <c r="B44" t="s">
@@ -1087,7 +1161,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>0</v>
       </c>
       <c r="B45" t="s">
@@ -1095,7 +1169,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>0</v>
       </c>
       <c r="B46" t="s">
@@ -1103,7 +1177,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>0</v>
       </c>
       <c r="B47" t="s">
@@ -1111,7 +1185,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -1119,7 +1193,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>0</v>
       </c>
       <c r="B49" t="s">
@@ -1127,7 +1201,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>0</v>
       </c>
       <c r="B50" t="s">
@@ -1135,7 +1209,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>0</v>
       </c>
       <c r="B51" t="s">
@@ -1143,7 +1217,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>0</v>
       </c>
       <c r="B52" t="s">
@@ -1151,7 +1225,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>0</v>
       </c>
       <c r="B53" t="s">
@@ -1159,7 +1233,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>0</v>
       </c>
       <c r="B54" t="s">
@@ -1167,7 +1241,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>0</v>
       </c>
       <c r="B55" t="s">
@@ -1175,7 +1249,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>0</v>
       </c>
       <c r="B56" t="s">
@@ -1183,7 +1257,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>0</v>
       </c>
       <c r="B57" t="s">
@@ -1191,7 +1265,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>0</v>
       </c>
       <c r="B58" t="s">
@@ -1199,7 +1273,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>0</v>
       </c>
       <c r="B59" t="s">
@@ -1207,7 +1281,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>0</v>
       </c>
       <c r="B60" t="s">
@@ -1215,7 +1289,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>0</v>
       </c>
       <c r="B61" t="s">
@@ -1223,7 +1297,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>0</v>
       </c>
       <c r="B62" t="s">
@@ -1231,7 +1305,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>0</v>
       </c>
       <c r="B63" t="s">
@@ -1239,7 +1313,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>0</v>
       </c>
       <c r="B64" t="s">
@@ -1247,7 +1321,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>0</v>
       </c>
       <c r="B65" t="s">
@@ -1255,7 +1329,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>0</v>
       </c>
       <c r="B66" t="s">
@@ -1263,7 +1337,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>0</v>
       </c>
       <c r="B67" t="s">
@@ -1271,7 +1345,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>0</v>
       </c>
       <c r="B68" t="s">
@@ -1279,7 +1353,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>0</v>
       </c>
       <c r="B69" t="s">
@@ -1287,7 +1361,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>0</v>
       </c>
       <c r="B70" t="s">
@@ -1295,7 +1369,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>0</v>
       </c>
       <c r="B71" t="s">
@@ -1303,7 +1377,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>0</v>
       </c>
       <c r="B72" t="s">
@@ -1311,7 +1385,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>0</v>
       </c>
       <c r="B73" t="s">
@@ -1319,7 +1393,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>0</v>
       </c>
       <c r="B74" t="s">
@@ -1327,7 +1401,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>0</v>
       </c>
       <c r="B75" t="s">
@@ -1335,7 +1409,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>0</v>
       </c>
       <c r="B76" t="s">
@@ -1343,7 +1417,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>0</v>
       </c>
       <c r="B77" t="s">
@@ -1351,7 +1425,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>0</v>
       </c>
       <c r="B78" t="s">
@@ -1359,7 +1433,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>0</v>
       </c>
       <c r="B79" t="s">
@@ -1367,7 +1441,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>0</v>
       </c>
       <c r="B80" t="s">
@@ -1375,7 +1449,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <v>0</v>
       </c>
       <c r="B81" t="s">
@@ -1395,7 +1469,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,399 +1482,419 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <f>SUM(B3:B22)</f>
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="9">
         <f>SUM(C3:C22)</f>
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="9">
         <f>SUM(D3:D22)</f>
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="10">
         <f>SUM(E3:E22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12">
         <f>Questions!A3</f>
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="12">
         <f>Questions!A8</f>
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="12">
         <f>Questions!A2</f>
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <f>Questions!A6</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14">
         <f>Questions!A5</f>
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="14">
         <f>Questions!A14</f>
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="14">
         <f>Questions!A4</f>
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <f>Questions!A10</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12">
         <f>Questions!A7</f>
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="12">
         <f>Questions!A16</f>
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="12">
         <f>Questions!A9</f>
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <f>Questions!A12</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14">
         <f>Questions!A11</f>
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="14">
         <f>Questions!A17</f>
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="14">
         <f>Questions!A13</f>
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <f>Questions!A20</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12">
         <f>Questions!A18</f>
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="12">
         <f>Questions!A26</f>
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="12">
         <f>Questions!A15</f>
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <f>Questions!A22</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14">
         <f>Questions!A24</f>
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="14">
         <f>Questions!A29</f>
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="14">
         <f>Questions!A19</f>
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <f>Questions!A28</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12">
         <f>Questions!A25</f>
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="12">
         <f>Questions!A30</f>
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="12">
         <f>Questions!A21</f>
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <f>Questions!A36</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14">
         <f>Questions!A33</f>
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="14">
         <f>Questions!A32</f>
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="14">
         <f>Questions!A23</f>
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <f>Questions!A38</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12">
         <f>Questions!A35</f>
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="12">
         <f>Questions!A34</f>
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="12">
         <f>Questions!A27</f>
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <f>Questions!A45</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14">
         <f>Questions!A39</f>
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="14">
         <f>Questions!A37</f>
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="14">
         <f>Questions!A31</f>
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <f>Questions!A50</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12">
         <f>Questions!A41</f>
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="12">
         <f>Questions!A40</f>
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="12">
         <f>Questions!A43</f>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <f>Questions!A51</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14">
         <f>Questions!A44</f>
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="14">
         <f>Questions!A42</f>
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="14">
         <f>Questions!A48</f>
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <f>Questions!A55</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12">
         <f>Questions!A46</f>
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="12">
         <f>Questions!A47</f>
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="12">
         <f>Questions!A52</f>
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <f>Questions!A56</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14">
         <f>Questions!A49</f>
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="14">
         <f>Questions!A54</f>
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="14">
         <f>Questions!A59</f>
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <f>Questions!A58</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12">
         <f>Questions!A60</f>
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="12">
         <f>Questions!A57</f>
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="12">
         <f>Questions!A64</f>
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <f>Questions!A61</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14">
         <f>Questions!A67</f>
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="14">
         <f>Questions!A62</f>
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="14">
         <f>Questions!A66</f>
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <f>Questions!A68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12">
         <f>Questions!A74</f>
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="12">
         <f>Questions!A65</f>
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="12">
         <f>Questions!A71</f>
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <f>Questions!A72</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14">
         <f>Questions!A75</f>
         <v>0</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="14">
         <f>Questions!A69</f>
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="14">
         <f>Questions!A78</f>
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <f>Questions!A73</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12">
         <f>Questions!A77</f>
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="12">
         <f>Questions!A70</f>
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="12">
         <f>Questions!A80</f>
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <f>Questions!A76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14">
         <f>Questions!A82</f>
         <v>0</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="14">
         <f>Questions!A79</f>
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="14">
         <f>Questions!A81</f>
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <f>Questions!A83</f>
         <v>0</v>
       </c>
